--- a/client/simulations/tests/range_no_data.xlsx
+++ b/client/simulations/tests/range_no_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Input Values" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,14 @@
     <sheet name="PKPD - APD90 vs. Timepoint" sheetId="3" r:id="rId3"/>
     <sheet name="Voltage Traces (concentration)" sheetId="4" r:id="rId4"/>
     <sheet name="Voltage Traces (Plot format)" sheetId="5" r:id="rId5"/>
+    <sheet name="ApPredict version information" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Title</t>
   </si>
@@ -156,13 +162,106 @@
   </si>
   <si>
     <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>ApPredict Version</t>
+  </si>
+  <si>
+    <t>37cc5a6</t>
+  </si>
+  <si>
+    <t>Chaste Version</t>
+  </si>
+  <si>
+    <t>2019.1.682dce0</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Build options</t>
+  </si>
+  <si>
+    <t>GccOpt, shared libraries</t>
+  </si>
+  <si>
+    <t>OS info</t>
+  </si>
+  <si>
+    <t>Linux d09b088bdc9f 4.15.0-161-generic #169-Ubuntu SMP Fri Oct 15 13:41:54 UTC 2021 x86_64</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>gcc, version b'9.3.0'</t>
+  </si>
+  <si>
+    <t>Compiler flags</t>
+  </si>
+  <si>
+    <t>-O3 -std=c++14</t>
+  </si>
+  <si>
+    <t>XSD</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>VTK</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Xerces</t>
+  </si>
+  <si>
+    <t>3.2.0</t>
+  </si>
+  <si>
+    <t>SUNDIALS</t>
+  </si>
+  <si>
+    <t>2.5.0</t>
+  </si>
+  <si>
+    <t>HDF5</t>
+  </si>
+  <si>
+    <t>1.8.16</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>1.65.1</t>
+  </si>
+  <si>
+    <t>PETSc</t>
+  </si>
+  <si>
+    <t>3.12.4</t>
+  </si>
+  <si>
+    <t>Parmetis</t>
+  </si>
+  <si>
+    <t>4.0.3</t>
+  </si>
+  <si>
+    <t>Ap Predict arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --pacing-freq 1 --pacing-max-time 5 --plasma-conc-high 100 --plasma-conc-low 0 --plasma-conc-count 4 --plasma-conc-logscale true --model 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -254,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,9 +393,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,6 +428,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,14 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -534,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -548,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -559,7 +668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -582,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -599,12 +708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
-        <v>44.716</v>
+        <v>44.716000000000001</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -619,7 +728,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -639,7 +748,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -659,7 +768,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -679,7 +788,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -699,7 +808,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -719,7 +828,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -730,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -738,7 +847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -746,7 +855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
@@ -754,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -768,14 +877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -804,14 +913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -825,28 +934,171 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/client/simulations/tests/range_no_data.xlsx
+++ b/client/simulations/tests/range_no_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\ap-nimbus-client\client\simulations\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Title</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>2019.1.682dce0</t>
-  </si>
-  <si>
-    <t>Modified</t>
   </si>
   <si>
     <t>Build options</t>
@@ -965,10 +962,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,112 +990,104 @@
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
         <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/client/simulations/tests/range_no_data.xlsx
+++ b/client/simulations/tests/range_no_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\ap-nimbus-client\client\simulations\tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11700"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input Values" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="Voltage Traces (Plot format)" sheetId="5" r:id="rId5"/>
     <sheet name="ApPredict version information" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>Title</t>
   </si>
@@ -35,7 +30,7 @@
     <t>Created at</t>
   </si>
   <si>
-    <t>2022-03-09 15:22:08.576962</t>
+    <t>2022-12-12 18:30:02.933102</t>
   </si>
   <si>
     <t>Created by</t>
@@ -251,14 +246,117 @@
     <t>Ap Predict arguments</t>
   </si>
   <si>
-    <t xml:space="preserve"> --pacing-freq 1 --pacing-max-time 5 --plasma-conc-high 100 --plasma-conc-low 0 --plasma-conc-count 4 --plasma-conc-logscale true --model 1</t>
+    <t>--pacing-freq 1 
+--pacing-max-time 5 
+--plasma-conc-high 100 
+--plasma-conc-low 0 
+--plasma-conc-count 4 
+--plasma-conc-logscale true 
+--model 1</t>
+  </si>
+  <si>
+    <t>Python packages versions for chaste_codegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python 3.7.3
+cellmlmanip==0.3.5
+chaste-codegen==0.8.0
+decorator==4.4.2
+importlib-metadata==4.13.0
+isodate==0.6.1
+Jinja2==2.11.3
+lxml==4.9.1
+MarkupSafe==1.1.1
+mpmath==1.2.1
+networkx==2.6.3
+packaging==20.9
+Pint==0.18
+pkg_resources==0.0.0
+py==1.11.0
+pyparsing==2.4.7
+rdflib==5.0.0
+six==1.16.0
+sympy==1.10.1
+typing_extensions==4.4.0
+zipp==1.2.0
+$CHASTE_TEST_OUTPUT is currently set to  /home/appredict/apps/ApPredict/testoutput.
+Copyright (c) 2005-2021, University of Oxford.
+All rights reserved.
+University of Oxford means the Chancellor, Masters and Scholars of the
+University of Oxford, having an administrative office at Wellington
+Square, Oxford OX1 2JD, UK.
+Redistribution and use in source and binary forms, with or without
+modification, are permitted provided that the following conditions are met:
+ * Redistributions of source code must retain the above copyright notice,
+   this list of conditions and the following disclaimer.
+ * Redistributions in binary form must reproduce the above copyright notice,
+   this list of conditions and the following disclaimer in the documentation
+   and/or other materials provided with the distribution.
+ * Neither the name of the University of Oxford nor the names of its
+   contributors may be used to endorse or promote products derived from this
+   software without specific prior written permission.
+THIS SOFTWARE IS PROVIDED BY THE COPYRIGHT HOLDERS AND CONTRIBUTORS "AS IS"
+AND ANY EXPRESS OR IMPLIED WARRANTIES, INCLUDING, BUT NOT LIMITED TO, THE
+IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR PURPOSE
+ARE DISCLAIMED. IN NO EVENT SHALL THE COPYRIGHT HOLDER OR CONTRIBUTORS BE
+LIABLE FOR ANY DIRECT, INDIRECT, INCIDENTAL, SPECIAL, EXEMPLARY, OR
+CONSEQUENTIAL DAMAGES (INCLUDING, BUT NOT LIMITED TO, PROCUREMENT OF SUBSTITUTE
+GOODS OR SERVICES; LOSS OF USE, DATA, OR PROFITS; OR BUSINESS INTERRUPTION)
+HOWEVER CAUSED AND ON ANY THEORY OF LIABILITY, WHETHER IN CONTRACT, STRICT
+LIABILITY, OR TORT (INCLUDING NEGLIGENCE OR OTHERWISE) ARISING IN ANY WAY OUT
+OF THE USE OF THIS SOFTWARE, EVEN IF ADVISED OF THE POSSIBILITY OF SUCH DAMAGE.
+This version of Chaste was compiled on:
+Mon, 07 Nov 2022 17:49:14 +0000 by Linux d09b088bdc9f 4.15.0-161-generic #169-Ubuntu SMP Fri Oct 15 13:41:54 UTC 2021 x86_64 (uname)
+from revision number 682dce0 with build type GccOpt, shared libraries.
+ApPredict is based on commit 37cc5a6. But it HAS BEEN MODIFIED from that commit!
+&lt;ChasteBuildInfo&gt;
+	&lt;ProvenanceInfo&gt;
+		&lt;VersionString&gt;2019.1.682dce0&lt;/VersionString&gt; &lt;!-- build specific --&gt;
+		&lt;IsWorkingCopyModified&gt;1&lt;/IsWorkingCopyModified&gt;
+		&lt;BuildInformation&gt;GccOpt, shared libraries&lt;/BuildInformation&gt;
+		&lt;BuildTime&gt;Mon, 07 Nov 2022 17:49:14 +0000&lt;/BuildTime&gt;
+		&lt;CurrentTime&gt;Thu, 10 Nov 2022 14:48:20 +0000&lt;/CurrentTime&gt;
+		&lt;BuilderUnameInfo&gt;Linux d09b088bdc9f 4.15.0-161-generic #169-Ubuntu SMP Fri Oct 15 13:41:54 UTC 2021 x86_64&lt;/BuilderUnameInfo&gt;
+		&lt;Projects&gt;
+			&lt;Project&gt;
+				&lt;Name&gt;ApPredict&lt;/Name&gt;
+				&lt;Version&gt;37cc5a6&lt;/Version&gt;
+				&lt;Modified&gt;True&lt;/Modified&gt;
+			&lt;/Project&gt;
+		&lt;/Projects&gt;
+	&lt;/ProvenanceInfo&gt;
+	&lt;Compiler&gt;
+		&lt;NameAndVersion&gt;gcc, version b'9.3.0'&lt;/NameAndVersion&gt;
+		&lt;Flags&gt;-O3 -std=c++14&lt;/Flags&gt;
+	&lt;/Compiler&gt;
+	&lt;Libraries&gt;
+		&lt;CompiledIn&gt;
+			&lt;PETSc&gt;3.12.4&lt;/PETSc&gt;
+			&lt;Boost&gt;1.65.1&lt;/Boost&gt;
+			&lt;HDF5&gt;1.8.16&lt;/HDF5&gt;
+			&lt;Parmetis&gt;4.0.3&lt;/Parmetis&gt;
+		&lt;/CompiledIn&gt;
+		&lt;Binaries&gt;
+			&lt;XSD&gt;4.0.0&lt;/XSD&gt;
+		&lt;/Binaries&gt;
+		&lt;Optional&gt;
+			&lt;SUNDIALS&gt;2.5.0&lt;/SUNDIALS&gt;&lt;!-- includes Cvode of a different version number --&gt;
+			&lt;VTK&gt;no&lt;/VTK&gt;
+			&lt;Xerces&gt;3.2.0&lt;/Xerces&gt;
+		&lt;/Optional&gt;
+	&lt;/Libraries&gt;
+&lt;/ChasteBuildInfo&gt;
+ApPredict args : --pacing-freq 1 --pacing-max-time 5 --plasma-conc-high 100 --plasma-conc-low 0 --plasma-conc-count 4 --plasma-conc-logscale true --model 1
+HTTP Request : {"pacingFrequency":1,"pacingMaxTime":5,"plasmaMinimum":0,"plasmaMaximum":100,"plasmaIntermediatePointCount":"4","plasmaIntermediatePointLogScale":true,"modelId":"1"}
+~/apps/app-manager/run/e716876a-4697-44b9-9267-4c6db505a40e ~/apps/app-manager
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,14 +402,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -358,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,10 +480,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +514,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,14 +689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -624,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -632,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -640,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -654,7 +742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -665,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -688,7 +776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -705,12 +793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
-        <v>44.716000000000001</v>
+        <v>44.716</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -725,7 +813,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -745,7 +833,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -765,7 +853,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -785,7 +873,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -805,7 +893,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -825,7 +913,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -836,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -844,7 +932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -852,7 +940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
@@ -860,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -874,14 +962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -910,14 +998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -931,26 +1019,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -961,16 +1049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -978,7 +1064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -986,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -994,7 +1080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1002,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1010,7 +1096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1018,7 +1104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1026,7 +1112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1034,7 +1120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1042,7 +1128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1050,7 +1136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1058,7 +1144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1066,7 +1152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1074,7 +1160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1082,12 +1168,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
